--- a/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_energy.xlsx
+++ b/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_energy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,45 +456,50 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>ed_simul</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>log_w_simul</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>cf1_simul</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>cf10_simul</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>diffcpicf_simul</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>grpe_shock_series</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>grpf_shock_series</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>vu_shock_series</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>excess_demand_shock_series</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>gscpi_shock_series</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>gcu_shock_series</t>
         </is>
@@ -540,6 +545,9 @@
       <c r="M2" t="n">
         <v>0</v>
       </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -581,6 +589,9 @@
       <c r="M3" t="n">
         <v>0</v>
       </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -622,6 +633,9 @@
       <c r="M4" t="n">
         <v>0</v>
       </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -663,6 +677,9 @@
       <c r="M5" t="n">
         <v>0</v>
       </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -678,23 +695,23 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.1945887692783327</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>0.0784582983645028</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.6458255721757946</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>28.02032199233155</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
@@ -702,6 +719,9 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -710,28 +730,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09874647575452343</v>
+        <v>0.1040305548556388</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1623233880253787</v>
+        <v>0.1633527078685148</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-0.00854937691237473</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4078167497353944</v>
+        <v>0.000216730322615914</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09756721005093055</v>
+        <v>0.0002600763871390969</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6864064191821393</v>
+        <v>0.4078942838599703</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.09759847185243108</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.6866637491429233</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -743,6 +763,9 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -751,28 +774,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1702036000431318</v>
+        <v>0.1787477773226885</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1259357163222435</v>
+        <v>0.1304852589629509</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.001357512858346073</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1429315185937147</v>
+        <v>0.0005687997993622589</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05863301899411372</v>
+        <v>0.0007069458304458182</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7178903482627002</v>
+        <v>0.1434318387381917</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.05880810602117752</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.7192850638836611</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -784,6 +807,9 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -792,28 +818,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1408317227539346</v>
+        <v>0.1482099914970327</v>
       </c>
       <c r="C9" t="n">
-        <v>0.112398656496369</v>
+        <v>0.1195133918348046</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.0220607448009949</v>
       </c>
       <c r="E9" t="n">
-        <v>0.085336064943832</v>
+        <v>0.0008219091808417354</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06330499925075221</v>
+        <v>0.0010774708091884</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7459900123867924</v>
+        <v>0.08661194023415623</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.06370374880787893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.7491634118423622</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -825,6 +851,9 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -833,28 +862,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1622601117580792</v>
+        <v>0.1783303326623599</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1265668683191117</v>
+        <v>0.1359227498137327</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.006813196814516628</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06397150037056422</v>
+        <v>0.001126875566664565</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05995012464025926</v>
+        <v>0.001523296640844299</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.062782611987557</v>
+        <v>0.065977205070955</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.06059652055935514</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-0.05727024215833199</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -866,6 +895,9 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -874,28 +906,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.07530061061106795</v>
+        <v>0.09953884583907498</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1079899730649453</v>
+        <v>0.1245106085754464</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.01304269622023959</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09312427603521037</v>
+        <v>0.001238150413136027</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05935342206876339</v>
+        <v>0.001772143755441987</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.289593946184727</v>
+        <v>0.09620131539735596</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.06043618541173047</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-0.2802862815632367</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -907,6 +939,9 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -915,28 +950,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05703661313031615</v>
+        <v>0.06745040275489568</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09199750264421107</v>
+        <v>0.1058718568215423</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.02057990711466113</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08971275331578737</v>
+        <v>0.001278887654566605</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06053800972608887</v>
+        <v>0.001940769762329226</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03319326846255544</v>
+        <v>0.09389395432595962</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.06197249709032152</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-0.02197718697681023</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -948,6 +983,9 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -956,28 +994,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.06390538403151849</v>
+        <v>0.0769965480267942</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08815350801956552</v>
+        <v>0.1013177986200963</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.011549190150343</v>
       </c>
       <c r="E13" t="n">
-        <v>0.06741904640629387</v>
+        <v>0.001348764105914125</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06073075803823071</v>
+        <v>0.002133261132396212</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0183408980681264</v>
+        <v>0.07161382711750258</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.06235357092769296</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.0302938132235482</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -989,6 +1027,9 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -997,28 +1038,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.07398585512989719</v>
+        <v>0.08156009463367341</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08148866624093594</v>
+        <v>0.09573235725525023</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.02187731055339528</v>
       </c>
       <c r="E14" t="n">
-        <v>0.06294434497909478</v>
+        <v>0.001433228623844593</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06075989167131439</v>
+        <v>0.002337161368980395</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02843591212185025</v>
+        <v>0.06730850783662518</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.0626461839827863</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.04088095024712882</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1030,6 +1071,9 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1038,28 +1082,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.08121585137675212</v>
+        <v>0.08757848674421163</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07877391236939613</v>
+        <v>0.09039316010994732</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.03140698502016498</v>
       </c>
       <c r="E15" t="n">
-        <v>0.07024636849518306</v>
+        <v>0.001534162352083327</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06100569603417867</v>
+        <v>0.002556107585840924</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.008020878716683208</v>
+        <v>0.07473395247013263</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.0630702951938895</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.002127477804353087</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1071,6 +1115,9 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1079,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07201310247709848</v>
+        <v>0.07906869360646206</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07604283313486625</v>
+        <v>0.08718974129483038</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.03371981333795361</v>
       </c>
       <c r="E16" t="n">
-        <v>0.06995096247390555</v>
+        <v>0.001616378480359517</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0612397837393458</v>
+        <v>0.002753779319857079</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.00859802337459642</v>
+        <v>0.07429256622031143</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.0634314899652406</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-0.0002356900059285599</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1112,6 +1159,9 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1120,28 +1170,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07110202819963976</v>
+        <v>0.07565411746043854</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07338733873751468</v>
+        <v>0.0833469289835186</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.03443943089161987</v>
       </c>
       <c r="E17" t="n">
-        <v>0.06449591663232844</v>
+        <v>0.00169266916313495</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06137333171408307</v>
+        <v>0.002942914613508176</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01000414121438438</v>
+        <v>0.06879066111056606</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.06370077323746912</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.01755171979338405</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1153,6 +1203,9 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1161,28 +1214,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07042136421103337</v>
+        <v>0.07461903501282841</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07292462247957754</v>
+        <v>0.0810972480577429</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.03912828565161459</v>
       </c>
       <c r="E18" t="n">
-        <v>0.06338034290132735</v>
+        <v>0.001768674588863079</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06154532312513888</v>
+        <v>0.003129462201040247</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01233783170124388</v>
+        <v>0.06744044090796585</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.06394453200260364</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.01819826177488462</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1194,6 +1247,9 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1202,28 +1258,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.06903298359417923</v>
+        <v>0.07309120040446397</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07148226996720673</v>
+        <v>0.07944879967283784</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.04458205729516646</v>
       </c>
       <c r="E19" t="n">
-        <v>0.06521068188210286</v>
+        <v>0.001842991334881225</v>
       </c>
       <c r="F19" t="n">
-        <v>0.06171654212823519</v>
+        <v>0.003312190202051407</v>
       </c>
       <c r="G19" t="n">
-        <v>0.003212897584608243</v>
+        <v>0.06906918765170701</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.06419094440268841</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.008036727032099789</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1235,6 +1291,9 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,28 +1302,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06783728115357804</v>
+        <v>0.07146624847393647</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06984993481057745</v>
+        <v>0.07705865766387505</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.04727439664635588</v>
       </c>
       <c r="E20" t="n">
-        <v>0.06510749374462536</v>
+        <v>0.001915253958378379</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06182872351075214</v>
+        <v>0.003490855823236248</v>
       </c>
       <c r="G20" t="n">
-        <v>0.001960079024813557</v>
+        <v>0.06891491544322911</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.06438291053543672</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.005945342374182178</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1276,6 +1335,9 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1284,28 +1346,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.06632287079507322</v>
+        <v>0.0697756600180844</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06883315655036745</v>
+        <v>0.0754664245474337</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.05009113433401201</v>
       </c>
       <c r="E21" t="n">
-        <v>0.06374197148831928</v>
+        <v>0.00198520845300241</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06192716190009916</v>
+        <v>0.003665294973281459</v>
       </c>
       <c r="G21" t="n">
-        <v>0.006276579319603862</v>
+        <v>0.06744443541786661</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.06453920632836502</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.009477121374906305</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1317,6 +1379,9 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1325,28 +1390,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.06572373292303736</v>
+        <v>0.06906910848461405</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06761080628510964</v>
+        <v>0.07416235208075872</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.05390279874257195</v>
       </c>
       <c r="E22" t="n">
-        <v>0.06332381385639556</v>
+        <v>0.002055124975441852</v>
       </c>
       <c r="F22" t="n">
-        <v>0.06200688667469943</v>
+        <v>0.003837967744492994</v>
       </c>
       <c r="G22" t="n">
-        <v>0.006063699001987971</v>
+        <v>0.06696470808210732</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.06468535494794284</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.00909361758326048</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1358,6 +1423,9 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1366,28 +1434,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.06530468843233525</v>
+        <v>0.06867654805074637</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06674340148219095</v>
+        <v>0.07303642367479998</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.05738586170318007</v>
       </c>
       <c r="E23" t="n">
-        <v>0.06357440779677875</v>
+        <v>0.002125597420770141</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06206657120993021</v>
+        <v>0.00400965911461986</v>
       </c>
       <c r="G23" t="n">
-        <v>0.003048642899958515</v>
+        <v>0.06720419954955001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.06481110421678939</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.005861776840009852</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1399,6 +1467,9 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1407,28 +1478,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06457615449810661</v>
+        <v>0.06796944677772347</v>
       </c>
       <c r="C24" t="n">
-        <v>0.06596740618835953</v>
+        <v>0.07222361940294318</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.06037071708940052</v>
       </c>
       <c r="E24" t="n">
-        <v>0.06347299321734842</v>
+        <v>0.002195715775205125</v>
       </c>
       <c r="F24" t="n">
-        <v>0.06211824757133537</v>
+        <v>0.004179582731564169</v>
       </c>
       <c r="G24" t="n">
-        <v>0.002181198881881521</v>
+        <v>0.06710273103640482</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.06492601614246409</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.004807289483254776</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1440,6 +1511,9 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,28 +1522,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.06404851845759314</v>
+        <v>0.0674444713907147</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06518452280011597</v>
+        <v>0.07147210938581949</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.06340389396431412</v>
       </c>
       <c r="E25" t="n">
-        <v>0.06306053524448114</v>
+        <v>0.002265813330611833</v>
       </c>
       <c r="F25" t="n">
-        <v>0.06215495515299407</v>
+        <v>0.004348193910040956</v>
       </c>
       <c r="G25" t="n">
-        <v>0.002634562700624732</v>
+        <v>0.06672564537475215</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.06503104139739109</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.005279190718213742</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1481,6 +1555,9 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1489,28 +1566,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.06375002026339818</v>
+        <v>0.06719383386779733</v>
       </c>
       <c r="C26" t="n">
-        <v>0.06468106429866038</v>
+        <v>0.07096205866381888</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.06652851791255417</v>
       </c>
       <c r="E26" t="n">
-        <v>0.06285812137837171</v>
+        <v>0.002336445998670074</v>
       </c>
       <c r="F26" t="n">
-        <v>0.06218418690404963</v>
+        <v>0.00451617849471045</v>
       </c>
       <c r="G26" t="n">
-        <v>0.002320284835936146</v>
+        <v>0.06656538061905783</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.06512770931693664</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.004958844699738077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1522,6 +1599,9 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1530,28 +1610,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06350207956704827</v>
+        <v>0.06700523582205274</v>
       </c>
       <c r="C27" t="n">
-        <v>0.06423302449955164</v>
+        <v>0.07061630943680494</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.06954969601369103</v>
       </c>
       <c r="E27" t="n">
-        <v>0.06285668858323289</v>
+        <v>0.002407652969447313</v>
       </c>
       <c r="F27" t="n">
-        <v>0.06220962708091082</v>
+        <v>0.004683691584265581</v>
       </c>
       <c r="G27" t="n">
-        <v>0.001442096649893129</v>
+        <v>0.06661491946635147</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.0652220200935657</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.004114324672796613</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1563,6 +1643,9 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1571,28 +1654,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.06325189922096509</v>
+        <v>0.0668180137145203</v>
       </c>
       <c r="C28" t="n">
-        <v>0.06383334597443696</v>
+        <v>0.07031320211792322</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.07246149138178083</v>
       </c>
       <c r="E28" t="n">
-        <v>0.06278252425833074</v>
+        <v>0.002479338818410146</v>
       </c>
       <c r="F28" t="n">
-        <v>0.06222815504596473</v>
+        <v>0.004850736618551882</v>
       </c>
       <c r="G28" t="n">
-        <v>0.001009996175842826</v>
+        <v>0.06661025637093383</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.06531202727912214</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.003738188864686812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1604,6 +1687,9 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1612,28 +1698,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.06304468397335913</v>
+        <v>0.06667205249765459</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06354541726354607</v>
+        <v>0.0701242841231644</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.07536762181668943</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0626445268006057</v>
+        <v>0.002551518272880916</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06224318514146124</v>
+        <v>0.005017416749796019</v>
       </c>
       <c r="G29" t="n">
-        <v>0.001012677764567621</v>
+        <v>0.06654521970580871</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.06539894254809618</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.003778318210675716</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1645,6 +1731,9 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1653,28 +1742,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.06291112288976364</v>
+        <v>0.06660512712226611</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06329925572595647</v>
+        <v>0.07001024473821502</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.07826496945478895</v>
       </c>
       <c r="E30" t="n">
-        <v>0.06256457084552011</v>
+        <v>0.002624305880662906</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06225559433928012</v>
+        <v>0.005183929567601684</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0008696394875010727</v>
+        <v>0.06654272877629233</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.06548500469458919</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.003700629484969062</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1686,6 +1775,9 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,28 +1786,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0628056847785079</v>
+        <v>0.0665773167388629</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06310659964015773</v>
+        <v>0.06994619963038037</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.08112891438851402</v>
       </c>
       <c r="E31" t="n">
-        <v>0.06253568390795679</v>
+        <v>0.002697724200093061</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06226528253859288</v>
+        <v>0.005350372859448841</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0005894660677914221</v>
+        <v>0.06659729670040632</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.06557000107441315</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.00348356318606928</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1727,6 +1819,9 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1735,28 +1830,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.06270541928961892</v>
+        <v>0.06655498469212814</v>
       </c>
       <c r="C32" t="n">
-        <v>0.06295463550599588</v>
+        <v>0.06993413790536454</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.08397599420406135</v>
       </c>
       <c r="E32" t="n">
-        <v>0.06249989665950741</v>
+        <v>0.002771720963054885</v>
       </c>
       <c r="F32" t="n">
-        <v>0.06227336316132458</v>
+        <v>0.005516760321179161</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0004439527755833034</v>
+        <v>0.06664839810675967</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.06565470939293382</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.003393460228347259</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1768,6 +1863,9 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1776,28 +1874,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.06262450507158943</v>
+        <v>0.06655400867663727</v>
       </c>
       <c r="C33" t="n">
-        <v>0.06282448724616047</v>
+        <v>0.06995261651232537</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>0.08681667985197514</v>
       </c>
       <c r="E33" t="n">
-        <v>0.06245252855338871</v>
+        <v>0.00284629017272315</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06227976458703739</v>
+        <v>0.005683145342870754</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0004017177289619422</v>
+        <v>0.06669202245892936</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.06573951823014768</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.003415579990762613</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1809,6 +1907,9 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_energy.xlsx
+++ b/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_energy.xlsx
@@ -730,28 +730,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1040305548556388</v>
+        <v>0.1006881635837113</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1633527078685148</v>
+        <v>0.1621503718688471</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.00854937691237473</v>
+        <v>-0.00827469450957497</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000216730322615914</v>
+        <v>0.0002097670074660652</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0002600763871390969</v>
+        <v>0.0002517204089592783</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4078942838599703</v>
+        <v>0.4078037171913085</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09759847185243108</v>
+        <v>0.09756195532201617</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6866637491429233</v>
+        <v>0.6863631651430064</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -774,28 +774,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1787477773226885</v>
+        <v>0.1791743601974827</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1304852589629509</v>
+        <v>0.1299342723994266</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001357512858346073</v>
+        <v>0.0007923880130764858</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0005687997993622589</v>
+        <v>0.0005637453496798045</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0007069458304458182</v>
+        <v>0.0006996563094529849</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1434318387381917</v>
+        <v>0.1432062176520305</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05880810602117752</v>
+        <v>0.05874825605666991</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7192850638836611</v>
+        <v>0.7188467332428631</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -818,28 +818,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1482099914970327</v>
+        <v>0.1494053805576209</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1195133918348046</v>
+        <v>0.1196609842179876</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0220607448009949</v>
+        <v>0.02183307234559575</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0008219091808417354</v>
+        <v>0.0008201014509396246</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0010774708091884</v>
+        <v>0.001073169760847037</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08661194023415623</v>
+        <v>0.08648814354045598</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06370374880787893</v>
+        <v>0.063665673054975</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7491634118423622</v>
+        <v>0.74876197929736</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1783303326623599</v>
+        <v>0.1744216048299679</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1359227498137327</v>
+        <v>0.134326556728108</v>
       </c>
       <c r="D10" t="n">
-        <v>0.006813196814516628</v>
+        <v>0.00778696568856925</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001126875566664565</v>
+        <v>0.001116582633790706</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001523296640844299</v>
+        <v>0.001509223772921957</v>
       </c>
       <c r="G10" t="n">
-        <v>0.065977205070955</v>
+        <v>0.06583278598799758</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06059652055935514</v>
+        <v>0.06051854592198214</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.05727024215833199</v>
+        <v>-0.05807072297474039</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09953884583907498</v>
+        <v>0.1080496949281922</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1245106085754464</v>
+        <v>0.1266410238265031</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01304269622023959</v>
+        <v>0.01150320969286735</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001238150413136027</v>
+        <v>0.001248036184000068</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001772143755441987</v>
+        <v>0.001779348010242438</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09620131539735596</v>
+        <v>0.09609935954482079</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06043618541173047</v>
+        <v>0.06041369756046196</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2802862815632367</v>
+        <v>-0.2801630078983022</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -950,28 +950,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.06745040275489568</v>
+        <v>0.06995384250328734</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1058718568215423</v>
+        <v>0.1082424871729716</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02057990711466113</v>
+        <v>0.02113183453377833</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001278887654566605</v>
+        <v>0.00129356435478026</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001940769762329226</v>
+        <v>0.001954232616500656</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09389395432595962</v>
+        <v>0.09430209083547537</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06197249709032152</v>
+        <v>0.06206326530778231</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.02197718697681023</v>
+        <v>-0.02098845466563787</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -994,28 +994,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0769965480267942</v>
+        <v>0.07678543873628112</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1013177986200963</v>
+        <v>0.1021387500810187</v>
       </c>
       <c r="D13" t="n">
-        <v>0.011549190150343</v>
+        <v>0.01310498841214634</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001348764105914125</v>
+        <v>0.00136173395565255</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002133261132396212</v>
+        <v>0.002146196213341359</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07161382711750258</v>
+        <v>0.07206142302538196</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06235357092769296</v>
+        <v>0.06244432080013976</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0302938132235482</v>
+        <v>0.0313490609116944</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1038,28 +1038,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.08156009463367341</v>
+        <v>0.08377581995185167</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09573235725525023</v>
+        <v>0.09768317934360177</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02187731055339528</v>
+        <v>0.02063510541508885</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001433228623844593</v>
+        <v>0.001450314005106627</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002337161368980395</v>
+        <v>0.002355635763220988</v>
       </c>
       <c r="G14" t="n">
-        <v>0.06730850783662518</v>
+        <v>0.06768166619714984</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0626461839827863</v>
+        <v>0.06276726340057678</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04088095024712882</v>
+        <v>0.04284357411802622</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.08757848674421163</v>
+        <v>0.08855544342369195</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09039316010994732</v>
+        <v>0.09221931124826188</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03140698502016498</v>
+        <v>0.03133099194687949</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001534162352083327</v>
+        <v>0.001552295284118295</v>
       </c>
       <c r="F15" t="n">
-        <v>0.002556107585840924</v>
+        <v>0.002577024371780218</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07473395247013263</v>
+        <v>0.07522284825007415</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0630702951938895</v>
+        <v>0.06324408646383385</v>
       </c>
       <c r="I15" t="n">
-        <v>0.002127477804353087</v>
+        <v>0.003971572416642699</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07906869360646206</v>
+        <v>0.08027884066930112</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08718974129483038</v>
+        <v>0.08838029341464058</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03371981333795361</v>
+        <v>0.03462586363787666</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001616378480359517</v>
+        <v>0.001636126226738778</v>
       </c>
       <c r="F16" t="n">
-        <v>0.002753779319857079</v>
+        <v>0.002777721473453471</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07429256622031143</v>
+        <v>0.07477851820109965</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0634314899652406</v>
+        <v>0.0636124877485356</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.0002356900059285599</v>
+        <v>0.0008032926864053602</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1170,28 +1170,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07565411746043854</v>
+        <v>0.07693972026559405</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0833469289835186</v>
+        <v>0.0848599054682307</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03443943089161987</v>
+        <v>0.03465022350976235</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00169266916313495</v>
+        <v>0.001714195806940091</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002942914613508176</v>
+        <v>0.002970070774117456</v>
       </c>
       <c r="G17" t="n">
-        <v>0.06879066111056606</v>
+        <v>0.06926464297159993</v>
       </c>
       <c r="H17" t="n">
-        <v>0.06370077323746912</v>
+        <v>0.06390302780154354</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01755171979338405</v>
+        <v>0.01872424934330177</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1214,28 +1214,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07461903501282841</v>
+        <v>0.07532908446334727</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0810972480577429</v>
+        <v>0.0822791883253418</v>
       </c>
       <c r="D18" t="n">
-        <v>0.03912828565161459</v>
+        <v>0.03922947657766755</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001768674588863079</v>
+        <v>0.001790605664092667</v>
       </c>
       <c r="F18" t="n">
-        <v>0.003129462201040247</v>
+        <v>0.003158393485275824</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06744044090796585</v>
+        <v>0.06792528016634548</v>
       </c>
       <c r="H18" t="n">
-        <v>0.06394453200260364</v>
+        <v>0.06416856779231352</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01819826177488462</v>
+        <v>0.01925300841696891</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1258,28 +1258,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07309120040446397</v>
+        <v>0.07406650575980557</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07944879967283784</v>
+        <v>0.08047306479204927</v>
       </c>
       <c r="D19" t="n">
-        <v>0.04458205729516646</v>
+        <v>0.0450543123348484</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001842991334881225</v>
+        <v>0.001866006821353727</v>
       </c>
       <c r="F19" t="n">
-        <v>0.003312190202051407</v>
+        <v>0.003343559749675338</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06906918765170701</v>
+        <v>0.06950723607916084</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06419094440268841</v>
+        <v>0.06442177594309731</v>
       </c>
       <c r="I19" t="n">
-        <v>0.008036727032099789</v>
+        <v>0.008775264749991435</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1302,28 +1302,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.07146624847393647</v>
+        <v>0.07245260229306677</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07705865766387505</v>
+        <v>0.07820526775645099</v>
       </c>
       <c r="D20" t="n">
-        <v>0.04727439664635588</v>
+        <v>0.04785048286344881</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001915253958378379</v>
+        <v>0.001939394204608162</v>
       </c>
       <c r="F20" t="n">
-        <v>0.003490855823236248</v>
+        <v>0.003524691255408005</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06891491544322911</v>
+        <v>0.06935741444638262</v>
       </c>
       <c r="H20" t="n">
-        <v>0.06438291053543672</v>
+        <v>0.06463093996931359</v>
       </c>
       <c r="I20" t="n">
-        <v>0.005945342374182178</v>
+        <v>0.006675838384418542</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1346,28 +1346,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0697756600180844</v>
+        <v>0.07056848081502624</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0754664245474337</v>
+        <v>0.07641363919214969</v>
       </c>
       <c r="D21" t="n">
-        <v>0.05009113433401201</v>
+        <v>0.05061840853514851</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00198520845300241</v>
+        <v>0.002010024636313441</v>
       </c>
       <c r="F21" t="n">
-        <v>0.003665294973281459</v>
+        <v>0.00370111245744557</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06744443541786661</v>
+        <v>0.06789772945119844</v>
       </c>
       <c r="H21" t="n">
-        <v>0.06453920632836502</v>
+        <v>0.06480064640373175</v>
       </c>
       <c r="I21" t="n">
-        <v>0.009477121374906305</v>
+        <v>0.01007814704489801</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1390,28 +1390,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.06906910848461405</v>
+        <v>0.06980803966670777</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07416235208075872</v>
+        <v>0.07504604507566104</v>
       </c>
       <c r="D22" t="n">
-        <v>0.05390279874257195</v>
+        <v>0.05444695563613808</v>
       </c>
       <c r="E22" t="n">
-        <v>0.002055124975441852</v>
+        <v>0.002080518795695439</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003837967744492994</v>
+        <v>0.00387563255661234</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06696470808210732</v>
+        <v>0.06739395148882615</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06468535494794284</v>
+        <v>0.06495454199518584</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00909361758326048</v>
+        <v>0.009609224037732275</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1434,28 +1434,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.06867654805074637</v>
+        <v>0.06938315714928792</v>
       </c>
       <c r="C23" t="n">
-        <v>0.07303642367479998</v>
+        <v>0.07391229227612565</v>
       </c>
       <c r="D23" t="n">
-        <v>0.05738586170318007</v>
+        <v>0.05804350768186005</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002125597420770141</v>
+        <v>0.002151523202724629</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00400965911461986</v>
+        <v>0.00404909044948556</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06720419954955001</v>
+        <v>0.06762665614416519</v>
       </c>
       <c r="H23" t="n">
-        <v>0.06481110421678939</v>
+        <v>0.06509138065056067</v>
       </c>
       <c r="I23" t="n">
-        <v>0.005861776840009852</v>
+        <v>0.006387074995936007</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1478,28 +1478,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06796944677772347</v>
+        <v>0.06864614660787162</v>
       </c>
       <c r="C24" t="n">
-        <v>0.07222361940294318</v>
+        <v>0.07300440507738681</v>
       </c>
       <c r="D24" t="n">
-        <v>0.06037071708940052</v>
+        <v>0.06107999816260806</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002195715775205125</v>
+        <v>0.002222132544494555</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004179582731564169</v>
+        <v>0.004220705816005239</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06710273103640482</v>
+        <v>0.0675222784150436</v>
       </c>
       <c r="H24" t="n">
-        <v>0.06492601614246409</v>
+        <v>0.0652147132458184</v>
       </c>
       <c r="I24" t="n">
-        <v>0.004807289483254776</v>
+        <v>0.005236680958948178</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1522,28 +1522,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0674444713907147</v>
+        <v>0.06806336526747754</v>
       </c>
       <c r="C25" t="n">
-        <v>0.07147210938581949</v>
+        <v>0.07221697193499731</v>
       </c>
       <c r="D25" t="n">
-        <v>0.06340389396431412</v>
+        <v>0.0641275583162795</v>
       </c>
       <c r="E25" t="n">
-        <v>0.002265813330611833</v>
+        <v>0.002292612167760614</v>
       </c>
       <c r="F25" t="n">
-        <v>0.004348193910040956</v>
+        <v>0.004390864229173933</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06672564537475215</v>
+        <v>0.06713688410207549</v>
       </c>
       <c r="H25" t="n">
-        <v>0.06503104139739109</v>
+        <v>0.06532652817950722</v>
       </c>
       <c r="I25" t="n">
-        <v>0.005279190718213742</v>
+        <v>0.005647199139844267</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1566,28 +1566,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.06719383386779733</v>
+        <v>0.06776014912290934</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07096205866381888</v>
+        <v>0.07165951617525512</v>
       </c>
       <c r="D26" t="n">
-        <v>0.06652851791255417</v>
+        <v>0.06729357096054635</v>
       </c>
       <c r="E26" t="n">
-        <v>0.002336445998670074</v>
+        <v>0.002363532038945171</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00451617849471045</v>
+        <v>0.004560264601981206</v>
       </c>
       <c r="G26" t="n">
-        <v>0.06656538061905783</v>
+        <v>0.06697099328066103</v>
       </c>
       <c r="H26" t="n">
-        <v>0.06512770931693664</v>
+        <v>0.06543004833659086</v>
       </c>
       <c r="I26" t="n">
-        <v>0.004958844699738077</v>
+        <v>0.005304344877115078</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1610,28 +1610,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06700523582205274</v>
+        <v>0.06754860559247289</v>
       </c>
       <c r="C27" t="n">
-        <v>0.07061630943680494</v>
+        <v>0.07126115091794225</v>
       </c>
       <c r="D27" t="n">
-        <v>0.06954969601369103</v>
+        <v>0.07035932712879067</v>
       </c>
       <c r="E27" t="n">
-        <v>0.002407652969447313</v>
+        <v>0.00243500341627534</v>
       </c>
       <c r="F27" t="n">
-        <v>0.004683691584265581</v>
+        <v>0.004729136115962388</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06661491946635147</v>
+        <v>0.06701223503452788</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0652220200935657</v>
+        <v>0.06552958968300225</v>
       </c>
       <c r="I27" t="n">
-        <v>0.004114324672796613</v>
+        <v>0.004408854882230182</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0668180137145203</v>
+        <v>0.06733637688087742</v>
       </c>
       <c r="C28" t="n">
-        <v>0.07031320211792322</v>
+        <v>0.07093132976893232</v>
       </c>
       <c r="D28" t="n">
-        <v>0.07246149138178083</v>
+        <v>0.07330052346446539</v>
       </c>
       <c r="E28" t="n">
-        <v>0.002479338818410146</v>
+        <v>0.00250692419705244</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004850736618551882</v>
+        <v>0.004897477058164582</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06661025637093383</v>
+        <v>0.06700143801049617</v>
       </c>
       <c r="H28" t="n">
-        <v>0.06531202727912214</v>
+        <v>0.06562444137745219</v>
       </c>
       <c r="I28" t="n">
-        <v>0.003738188864686812</v>
+        <v>0.003994963784238151</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1698,28 +1698,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.06667205249765459</v>
+        <v>0.06716183999455605</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0701242841231644</v>
+        <v>0.07070495845072283</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07536762181668943</v>
+        <v>0.07623290686825349</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002551518272880916</v>
+        <v>0.002579299197144586</v>
       </c>
       <c r="F29" t="n">
-        <v>0.005017416749796019</v>
+        <v>0.005065381658150972</v>
       </c>
       <c r="G29" t="n">
-        <v>0.06654521970580871</v>
+        <v>0.06693248703080215</v>
       </c>
       <c r="H29" t="n">
-        <v>0.06539894254809618</v>
+        <v>0.06571572289606255</v>
       </c>
       <c r="I29" t="n">
-        <v>0.003778318210675716</v>
+        <v>0.004002354726137636</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1742,28 +1742,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.06660512712226611</v>
+        <v>0.0670722948627382</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07001024473821502</v>
+        <v>0.07055991079810457</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07826496945478895</v>
+        <v>0.07915710625761718</v>
       </c>
       <c r="E30" t="n">
-        <v>0.002624305880662906</v>
+        <v>0.002652256488291038</v>
       </c>
       <c r="F30" t="n">
-        <v>0.005183929567601684</v>
+        <v>0.005233062395307818</v>
       </c>
       <c r="G30" t="n">
-        <v>0.06654272877629233</v>
+        <v>0.06692444954676922</v>
       </c>
       <c r="H30" t="n">
-        <v>0.06548500469458919</v>
+        <v>0.06580531248043535</v>
       </c>
       <c r="I30" t="n">
-        <v>0.003700629484969062</v>
+        <v>0.003893344203264468</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1786,28 +1786,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0665773167388629</v>
+        <v>0.06702845663310814</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06994619963038037</v>
+        <v>0.070474529484788</v>
       </c>
       <c r="D31" t="n">
-        <v>0.08112891438851402</v>
+        <v>0.08204480379514975</v>
       </c>
       <c r="E31" t="n">
-        <v>0.002697724200093061</v>
+        <v>0.002725833375544682</v>
       </c>
       <c r="F31" t="n">
-        <v>0.005350372859448841</v>
+        <v>0.005400633536890589</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06659729670040632</v>
+        <v>0.0669744727995179</v>
       </c>
       <c r="H31" t="n">
-        <v>0.06557000107441315</v>
+        <v>0.06589360222546345</v>
       </c>
       <c r="I31" t="n">
-        <v>0.00348356318606928</v>
+        <v>0.003655447091109043</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1830,28 +1830,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.06655498469212814</v>
+        <v>0.06699326930023346</v>
       </c>
       <c r="C32" t="n">
-        <v>0.06993413790536454</v>
+        <v>0.07043979421973064</v>
       </c>
       <c r="D32" t="n">
-        <v>0.08397599420406135</v>
+        <v>0.08491214866436192</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002771720963054885</v>
+        <v>0.002799983756898644</v>
       </c>
       <c r="F32" t="n">
-        <v>0.005516760321179161</v>
+        <v>0.005568116710141172</v>
       </c>
       <c r="G32" t="n">
-        <v>0.06664839810675967</v>
+        <v>0.06702228692686933</v>
       </c>
       <c r="H32" t="n">
-        <v>0.06565470939293382</v>
+        <v>0.06598123166571261</v>
       </c>
       <c r="I32" t="n">
-        <v>0.003393460228347259</v>
+        <v>0.003543360227840339</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1874,28 +1874,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.06655400867663727</v>
+        <v>0.06697948080107403</v>
       </c>
       <c r="C33" t="n">
-        <v>0.06995261651232537</v>
+        <v>0.07044084072397107</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08681667985197514</v>
+        <v>0.08777193191543958</v>
       </c>
       <c r="E33" t="n">
-        <v>0.00284629017272315</v>
+        <v>0.002874700194560662</v>
       </c>
       <c r="F33" t="n">
-        <v>0.005683145342870754</v>
+        <v>0.005735565412143857</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06669202245892936</v>
+        <v>0.06706294793266418</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06573951823014768</v>
+        <v>0.06606859649184461</v>
       </c>
       <c r="I33" t="n">
-        <v>0.003415579990762613</v>
+        <v>0.003546281775846413</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
